--- a/backend/src/controllers/test/k65cd.xlsx
+++ b/backend/src/controllers/test/k65cd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\backend\src\controllers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\backend\src\controllers\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72986821-3872-4B18-B48E-371BF4222FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE9936-33A2-4FF8-AF23-5B8088CB06BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F2802D8D-390D-4525-909C-B8B5158C3A94}"/>
   </bookViews>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911576C-7633-41EB-989F-385CA1515F74}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
